--- a/EAIAK/Helixvstemperature.xlsx
+++ b/EAIAK/Helixvstemperature.xlsx
@@ -193,7 +193,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -260,7 +260,7 @@
                     <c:v/>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v/>
+                    <c:v>0.0680038106571</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v/>
@@ -290,7 +290,7 @@
                     <c:v/>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v/>
+                    <c:v>0.0680038106571</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v/>
@@ -351,7 +351,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0.568725</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v/>
@@ -402,6 +402,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -471,11 +472,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="60780695"/>
-        <c:axId val="7476022"/>
+        <c:axId val="5045583"/>
+        <c:axId val="71846341"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60780695"/>
+        <c:axId val="5045583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -510,12 +511,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7476022"/>
+        <c:crossAx val="71846341"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7476022"/>
+        <c:axId val="71846341"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,7 +560,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60780695"/>
+        <c:crossAx val="5045583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -597,9 +598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>157320</xdr:colOff>
+      <xdr:colOff>156960</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -607,8 +608,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3553920" y="57240"/>
-        <a:ext cx="5004360" cy="3719520"/>
+        <a:off x="3506400" y="57240"/>
+        <a:ext cx="4917960" cy="3719160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -629,12 +630,12 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,8 +695,12 @@
       <c r="C4" s="1" t="n">
         <v>0.0876410149416</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="0" t="n">
+        <v>0.568725</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.0680038106571</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">

--- a/EAIAK/Helixvstemperature.xlsx
+++ b/EAIAK/Helixvstemperature.xlsx
@@ -193,7 +193,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -249,21 +249,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$2:$E$8</c:f>
+                <c:f>Sheet1!$E$2:$E$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="7"/>
+                  <c:ptCount val="8"/>
                   <c:pt idx="0">
                     <c:v>0.05248720479</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v/>
+                    <c:v>0.0488302018336</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.0680038106571</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v/>
+                    <c:v>0.189593198828</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.0469263323753</c:v>
@@ -272,6 +272,9 @@
                     <c:v/>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v/>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v/>
                   </c:pt>
                 </c:numCache>
@@ -279,21 +282,21 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$E$2:$E$8</c:f>
+                <c:f>Sheet1!$E$2:$E$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="7"/>
+                  <c:ptCount val="8"/>
                   <c:pt idx="0">
                     <c:v>0.05248720479</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v/>
+                    <c:v>0.0488302018336</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.0680038106571</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v/>
+                    <c:v>0.189593198828</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.0469263323753</c:v>
@@ -302,6 +305,9 @@
                     <c:v/>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v/>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v/>
                   </c:pt>
                 </c:numCache>
@@ -310,10 +316,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -330,9 +336,12 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -340,21 +349,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.757666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0.685383333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.568725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>0.412108333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0177364864865</c:v>
@@ -363,6 +372,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -412,10 +424,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -432,9 +444,12 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -442,10 +457,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.70345</c:v>
                 </c:pt>
@@ -462,9 +477,12 @@
                   <c:v>0.342241666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.145125</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.070375</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.0131416666667</c:v>
                 </c:pt>
               </c:numCache>
@@ -472,11 +490,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="5045583"/>
-        <c:axId val="71846341"/>
+        <c:axId val="27013545"/>
+        <c:axId val="45778686"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5045583"/>
+        <c:axId val="27013545"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,12 +529,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71846341"/>
+        <c:crossAx val="45778686"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71846341"/>
+        <c:axId val="45778686"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +578,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5045583"/>
+        <c:crossAx val="27013545"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -592,15 +610,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>553680</xdr:colOff>
+      <xdr:colOff>554040</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>156960</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:colOff>156600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -608,8 +626,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3506400" y="57240"/>
-        <a:ext cx="4917960" cy="3719160"/>
+        <a:off x="3458880" y="57240"/>
+        <a:ext cx="4831920" cy="3881520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -627,15 +645,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,8 +700,12 @@
       <c r="C3" s="1" t="n">
         <v>0.0942124608413</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="0" t="n">
+        <v>0.685383333333</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.0488302018336</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -712,8 +734,12 @@
       <c r="C5" s="1" t="n">
         <v>0.0752455014344</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="0" t="n">
+        <v>0.412108333333</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.189593198828</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -734,29 +760,40 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>0.070375</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0.0577740804773</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.145125</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.0683777695966</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>0.0131416666667</v>
+        <v>0.070375</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.020939554211</v>
+        <v>0.0577740804773</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0.0131416666667</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.020939554211</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/EAIAK/Helixvstemperature.xlsx
+++ b/EAIAK/Helixvstemperature.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\HelixForDinner\EAIAK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,52 +26,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
-    <t xml:space="preserve">Temperature</t>
+    <t>Temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">EAAAK</t>
+    <t>EAAAK</t>
   </si>
   <si>
-    <t xml:space="preserve">STD</t>
+    <t>STD</t>
   </si>
   <si>
-    <t xml:space="preserve">EAIAK</t>
+    <t>EAIAK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,7 +59,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -87,49 +67,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -188,17 +137,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -217,9 +186,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -229,18 +195,36 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="004586"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:errBars>
             <c:errDir val="y"/>
@@ -254,28 +238,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>0.05248720479</c:v>
+                    <c:v>5.2487204789999999E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0488302018336</c:v>
+                    <c:v>4.8830201833599998E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0680038106571</c:v>
+                    <c:v>6.8003810657099997E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.189593198828</c:v>
+                    <c:v>0.18959319882799999</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0469263323753</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v/>
+                    <c:v>4.6926332375300001E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -287,32 +262,30 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>0.05248720479</c:v>
+                    <c:v>5.2487204789999999E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0488302018336</c:v>
+                    <c:v>4.8830201833599998E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0680038106571</c:v>
+                    <c:v>6.8003810657099997E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.189593198828</c:v>
+                    <c:v>0.18959319882799999</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0469263323753</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v/>
+                    <c:v>4.6926332375300001E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:errBars>
           <c:xVal>
             <c:numRef>
@@ -357,30 +330,26 @@
                   <c:v>0.757666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.685383333333</c:v>
+                  <c:v>0.68538333333300006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.568725</c:v>
+                  <c:v>0.56872500000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.412108333333</c:v>
+                  <c:v>0.41210833333300001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0177364864865</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
+                  <c:v>1.7736486486499999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DF5-448C-9B7D-7DB54445CC49}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -397,9 +366,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -409,19 +375,119 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$2:$C$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>7.4565279006599997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.42124608413E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.7641014941599996E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.5245501434399995E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.116189973451</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.8377769596599997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.7774080477299997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.0939554211000001E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$2:$C$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>7.4565279006599997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.42124608413E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.7641014941599996E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.5245501434399995E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.116189973451</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.8377769596599997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.7774080477299997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.0939554211000001E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:tailEnd type="none"/>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$9</c:f>
@@ -462,34 +528,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.70345</c:v>
+                  <c:v>0.70345000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.700366666667</c:v>
+                  <c:v>0.70036666666699998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.597883333333</c:v>
+                  <c:v>0.59788333333300003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.475758333333</c:v>
+                  <c:v>0.47575833333299999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.342241666667</c:v>
+                  <c:v>0.34224166666700001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.145125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.070375</c:v>
+                  <c:v>7.0374999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0131416666667</c:v>
+                  <c:v>1.3141666666700001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7DF5-448C-9B7D-7DB54445CC49}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="27013545"/>
         <c:axId val="45778686"/>
       </c:scatterChart>
@@ -500,6 +579,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Temperature (°C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -507,28 +604,10 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="45778686"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -537,18 +616,32 @@
         <c:axId val="45778686"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>-helicity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -556,28 +649,10 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="27013545"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -586,48 +661,73 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>554040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>277815</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>156600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:colOff>432825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>113640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3458880" y="57240"/>
-        <a:ext cx="4831920" cy="3881520"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -640,23 +740,315 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col min="1" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,133 +1065,132 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0.70345</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0.0745652790066</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="B2" s="1">
+        <v>0.70345000000000002</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.4565279006599997E-2</v>
+      </c>
+      <c r="D2">
         <v>0.757666666667</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>0.05248720479</v>
+      <c r="E2">
+        <v>5.2487204789999999E-2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0.700366666667</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0.0942124608413</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.685383333333</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.0488302018336</v>
+      <c r="B3" s="1">
+        <v>0.70036666666699998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.42124608413E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.68538333333300006</v>
+      </c>
+      <c r="E3">
+        <v>4.8830201833599998E-2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>50</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>0.597883333333</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0.0876410149416</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.568725</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.0680038106571</v>
+      <c r="B4" s="1">
+        <v>0.59788333333300003</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.7641014941599996E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.56872500000000004</v>
+      </c>
+      <c r="E4">
+        <v>6.8003810657099997E-2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>75</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>0.475758333333</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0.0752455014344</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.412108333333</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.189593198828</v>
+      <c r="B5" s="1">
+        <v>0.47575833333299999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.5245501434399995E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.41210833333300001</v>
+      </c>
+      <c r="E5">
+        <v>0.18959319882799999</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>0.342241666667</v>
-      </c>
-      <c r="C6" s="1" t="n">
+      <c r="B6" s="1">
+        <v>0.34224166666700001</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.116189973451</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0.0177364864865</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.0469263323753</v>
+      <c r="D6">
+        <v>1.7736486486499999E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.6926332375300001E-2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>125</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>0.145125</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0.0683777695966</v>
+      <c r="C7">
+        <v>6.8377769596599997E-2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>150</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>0.070375</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0.0577740804773</v>
+      <c r="B8" s="1">
+        <v>7.0374999999999993E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.7774080477299997E-2</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>200</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>0.0131416666667</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0.020939554211</v>
+      <c r="B9" s="1">
+        <v>1.3141666666700001E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.0939554211000001E-2</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/EAIAK/Helixvstemperature.xlsx
+++ b/EAIAK/Helixvstemperature.xlsx
@@ -193,7 +193,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -272,7 +272,7 @@
                     <c:v/>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v/>
+                    <c:v>0.0375345609258</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v/>
@@ -305,7 +305,7 @@
                     <c:v/>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v/>
+                    <c:v>0.0375345609258</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v/>
@@ -372,7 +372,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>0.0873083333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -490,11 +490,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="27013545"/>
-        <c:axId val="45778686"/>
+        <c:axId val="94172096"/>
+        <c:axId val="11596368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27013545"/>
+        <c:axId val="94172096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,12 +529,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45778686"/>
+        <c:crossAx val="11596368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45778686"/>
+        <c:axId val="11596368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,7 +578,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27013545"/>
+        <c:crossAx val="94172096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -616,9 +616,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>156600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -626,8 +626,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3458880" y="57240"/>
-        <a:ext cx="4831920" cy="3881520"/>
+        <a:off x="3411360" y="57240"/>
+        <a:ext cx="4745880" cy="3881160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -648,13 +648,10 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -779,8 +776,12 @@
       <c r="C8" s="1" t="n">
         <v>0.0577740804773</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="0" t="n">
+        <v>0.0873083333333</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.0375345609258</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">

--- a/EAIAK/Helixvstemperature.xlsx
+++ b/EAIAK/Helixvstemperature.xlsx
@@ -249,10 +249,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$2:$E$9</c:f>
+                <c:f>Sheet1!$E$2:$E$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="9"/>
                   <c:pt idx="0">
                     <c:v>0.05248720479</c:v>
                   </c:pt>
@@ -260,32 +260,35 @@
                     <c:v>0.0488302018336</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>0.0483078438535</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>0.0680038106571</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>0.189593198828</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>0.148169325061</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v/>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>0.0375345609258</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v/>
+                  <c:pt idx="8">
+                    <c:v>0.0267708122568</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$E$2:$E$9</c:f>
+                <c:f>Sheet1!$E$2:$E$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="9"/>
                   <c:pt idx="0">
                     <c:v>0.05248720479</c:v>
                   </c:pt>
@@ -293,22 +296,25 @@
                     <c:v>0.0488302018336</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>0.0483078438535</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>0.0680038106571</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>0.189593198828</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>0.148169325061</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v/>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>0.0375345609258</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v/>
+                  <c:pt idx="8">
+                    <c:v>0.0267708122568</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -316,10 +322,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -327,21 +333,24 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -349,10 +358,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.757666666667</c:v>
                 </c:pt>
@@ -360,22 +369,25 @@
                   <c:v>0.685383333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.672566666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.568725</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.412108333333</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.308833333333</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.0873083333333</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
+                <c:pt idx="8">
+                  <c:v>0.0448166666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,10 +436,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -435,21 +447,24 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -457,10 +472,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.70345</c:v>
                 </c:pt>
@@ -468,21 +483,24 @@
                   <c:v>0.700366666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.640191666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.597883333333</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.475758333333</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.342241666667</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.145125</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.070375</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.0131416666667</c:v>
                 </c:pt>
               </c:numCache>
@@ -490,11 +508,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79047705"/>
-        <c:axId val="96581030"/>
+        <c:axId val="41281374"/>
+        <c:axId val="30189720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79047705"/>
+        <c:axId val="41281374"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,12 +547,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96581030"/>
+        <c:crossAx val="30189720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96581030"/>
+        <c:axId val="30189720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,7 +596,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79047705"/>
+        <c:crossAx val="41281374"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -610,15 +628,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>554040</xdr:colOff>
+      <xdr:colOff>554400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>155880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:colOff>154800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -626,8 +644,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3554280" y="57240"/>
-        <a:ext cx="5002560" cy="3880800"/>
+        <a:off x="3411720" y="57240"/>
+        <a:ext cx="4744080" cy="4042440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -645,16 +663,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -709,95 +724,116 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>0.597883333333</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0.0876410149416</v>
+        <v>37</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.640191666667</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.076166961615</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.568725</v>
+        <v>0.672566666667</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.0680038106571</v>
+        <v>0.0483078438535</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.475758333333</v>
+        <v>0.597883333333</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.0752455014344</v>
+        <v>0.0876410149416</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.412108333333</v>
+        <v>0.568725</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.189593198828</v>
+        <v>0.0680038106571</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0.342241666667</v>
+        <v>0.475758333333</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.116189973451</v>
+        <v>0.0752455014344</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.308833333333</v>
+        <v>0.412108333333</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.148169325061</v>
+        <v>0.189593198828</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.145125</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.0683777695966</v>
+        <v>100</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.342241666667</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.116189973451</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.308833333333</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.148169325061</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>0.070375</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0.0577740804773</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.0873083333333</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.0375345609258</v>
+        <v>125</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.145125</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.0683777695966</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0.070375</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.0577740804773</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.0873083333333</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.0375345609258</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.0131416666667</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.020939554211</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D10" s="0" t="n">
+        <v>0.0448166666667</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.0267708122568</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/EAIAK/Helixvstemperature.xlsx
+++ b/EAIAK/Helixvstemperature.xlsx
@@ -272,7 +272,7 @@
                     <c:v>0.148169325061</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v/>
+                    <c:v>0.0547983823514</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.0375345609258</c:v>
@@ -308,7 +308,7 @@
                     <c:v>0.148169325061</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v/>
+                    <c:v>0.0547983823514</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.0375345609258</c:v>
@@ -381,7 +381,7 @@
                   <c:v>0.308833333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>0.0862583333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0873083333333</c:v>
@@ -508,11 +508,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="41281374"/>
-        <c:axId val="30189720"/>
+        <c:axId val="89428424"/>
+        <c:axId val="84602886"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41281374"/>
+        <c:axId val="89428424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,12 +547,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30189720"/>
+        <c:crossAx val="84602886"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30189720"/>
+        <c:axId val="84602886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +596,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41281374"/>
+        <c:crossAx val="89428424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -634,9 +634,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>154800</xdr:colOff>
+      <xdr:colOff>154440</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -644,8 +644,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3411720" y="57240"/>
-        <a:ext cx="4744080" cy="4042440"/>
+        <a:off x="3554640" y="57240"/>
+        <a:ext cx="5000760" cy="4042080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -666,10 +666,13 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -799,6 +802,12 @@
       </c>
       <c r="C8" s="0" t="n">
         <v>0.0683777695966</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.0862583333333</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.0547983823514</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
